--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2626104.834205631</v>
+        <v>2623561.024698548</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>232.0107229828402</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>124.0596109626757</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>153.0737186336432</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>165.4291737832668</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>74.85750860793466</v>
       </c>
       <c r="W4" t="n">
-        <v>247.1199100808823</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>219.4450108596165</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>79.24302978361793</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>46.61022226819643</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>2.875953774682837</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>43.9693807464451</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>48.20279434449701</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>275.7897546824505</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>295.4593382702365</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.5491597882495</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3351760237737</v>
+        <v>133.5587268592355</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06264775162299</v>
+        <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115226</v>
+        <v>20.2497997611525</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>104.7205754741546</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>139.0046374958483</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797012</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>100.9410961977539</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>87.21471514852939</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>118.4817021252624</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833457</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>68.11883945937008</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>75.55208621972906</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>81.13054509253637</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>268.4151888127975</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="C2" t="n">
-        <v>268.4151888127975</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="D2" t="n">
-        <v>268.4151888127975</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="E2" t="n">
-        <v>268.4151888127975</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471535</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471535</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="W2" t="n">
-        <v>801.1705019471535</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="X2" t="n">
-        <v>534.7928453799755</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="Y2" t="n">
-        <v>268.4151888127975</v>
+        <v>560.7979242836799</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>868.3042991927468</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>713.684381380986</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>564.7499717197347</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>405.5125167142792</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>648.3904695545987</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>690.9462660988088</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>436.7089093706072</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.519636212815</v>
+        <v>228.8574091650744</v>
       </c>
       <c r="Y3" t="n">
-        <v>1036.519636212815</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.7808620772518</v>
+        <v>358.602653973024</v>
       </c>
       <c r="C4" t="n">
-        <v>351.7808620772518</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D4" t="n">
-        <v>351.7808620772518</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E4" t="n">
-        <v>351.7808620772518</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
-        <v>204.8909145793414</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640391</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U4" t="n">
-        <v>829.3864837640391</v>
+        <v>434.2162990315438</v>
       </c>
       <c r="V4" t="n">
-        <v>829.3864837640391</v>
+        <v>358.602653973024</v>
       </c>
       <c r="W4" t="n">
-        <v>579.7704129752691</v>
+        <v>358.602653973024</v>
       </c>
       <c r="X4" t="n">
-        <v>351.7808620772518</v>
+        <v>358.602653973024</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.7808620772518</v>
+        <v>358.602653973024</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388467</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="C5" t="n">
-        <v>566.8162363079209</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="D5" t="n">
-        <v>566.8162363079209</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="E5" t="n">
-        <v>300.438579740743</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>367.5182313951954</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>101.1405748280174</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195.5501396812475</v>
+        <v>168.6623048843692</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>168.6623048843692</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>168.6623048843692</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004802</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4671,25 +4671,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1033.614632400004</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1033.614632400004</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U6" t="n">
-        <v>1033.614632400004</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="V6" t="n">
-        <v>1033.614632400004</v>
+        <v>376.4226036493231</v>
       </c>
       <c r="W6" t="n">
-        <v>779.3772756718023</v>
+        <v>376.4226036493231</v>
       </c>
       <c r="X6" t="n">
-        <v>571.5257754662695</v>
+        <v>376.4226036493231</v>
       </c>
       <c r="Y6" t="n">
-        <v>363.7654767013155</v>
+        <v>168.6623048843692</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.32155393434482</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434482</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434482</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>1006.165828748957</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>751.4813405430702</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="W7" t="n">
-        <v>485.1036839758923</v>
+        <v>434.2162990315438</v>
       </c>
       <c r="X7" t="n">
-        <v>257.114133077875</v>
+        <v>434.2162990315438</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.32155393434482</v>
+        <v>213.4237198880137</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1509.415204450725</v>
+        <v>832.1286765711423</v>
       </c>
       <c r="C8" t="n">
-        <v>1509.415204450725</v>
+        <v>832.1286765711423</v>
       </c>
       <c r="D8" t="n">
-        <v>1151.149505843975</v>
+        <v>473.8629779643918</v>
       </c>
       <c r="E8" t="n">
-        <v>765.3612532457305</v>
+        <v>473.8629779643918</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9174772151886</v>
+        <v>466.9174772151883</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685583</v>
+        <v>51.2112552068555</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685583</v>
+        <v>51.2112552068555</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685583</v>
+        <v>51.2112552068555</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607433</v>
+        <v>442.1757437607408</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045949</v>
+        <v>795.1862829045904</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.64796299523</v>
+        <v>1219.647962995223</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209589</v>
+        <v>1655.591685209579</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940601</v>
+        <v>2053.905718940589</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550204</v>
+        <v>2359.356530550191</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661172</v>
+        <v>2540.564622661156</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.562760342775</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762145</v>
+        <v>2435.830015762128</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858418</v>
+        <v>2227.077931858401</v>
       </c>
       <c r="U8" t="n">
-        <v>2227.077931858418</v>
+        <v>2227.077931858401</v>
       </c>
       <c r="V8" t="n">
-        <v>1896.015044514847</v>
+        <v>2227.077931858401</v>
       </c>
       <c r="W8" t="n">
-        <v>1896.015044514847</v>
+        <v>1874.309276588287</v>
       </c>
       <c r="X8" t="n">
-        <v>1896.015044514847</v>
+        <v>1500.843518327207</v>
       </c>
       <c r="Y8" t="n">
-        <v>1896.015044514847</v>
+        <v>1110.704186351395</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010864</v>
+        <v>929.50972080107</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199594</v>
+        <v>755.056691519943</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587081</v>
+        <v>606.1222818586917</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532526</v>
+        <v>446.8848268532362</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801376</v>
+        <v>300.3502688801212</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763258</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993893</v>
+        <v>71.66559839993884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685583</v>
+        <v>51.2112552068555</v>
       </c>
       <c r="J9" t="n">
-        <v>238.318882950724</v>
+        <v>238.318882950723</v>
       </c>
       <c r="K9" t="n">
-        <v>422.9158793018237</v>
+        <v>422.9158793018216</v>
       </c>
       <c r="L9" t="n">
-        <v>717.4518627353057</v>
+        <v>1056.655162486658</v>
       </c>
       <c r="M9" t="n">
-        <v>1080.518331209608</v>
+        <v>1419.721630960959</v>
       </c>
       <c r="N9" t="n">
-        <v>1714.257614394449</v>
+        <v>1806.806033433527</v>
       </c>
       <c r="O9" t="n">
-        <v>2046.144424381839</v>
+        <v>2174.01987145925</v>
       </c>
       <c r="P9" t="n">
-        <v>2293.179782811464</v>
+        <v>2421.055229888873</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342792</v>
+        <v>2536.272628442618</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.562760342775</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251707</v>
+        <v>2424.826280251691</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685356</v>
+        <v>2230.81647768534</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751585</v>
+        <v>2002.726321751569</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519843</v>
+        <v>1767.574213519826</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791641</v>
+        <v>1513.336856791625</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586108</v>
+        <v>1305.485356586092</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821154</v>
+        <v>1097.725057821138</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>750.6540623996912</v>
+        <v>297.4949796906412</v>
       </c>
       <c r="C10" t="n">
-        <v>750.6540623996912</v>
+        <v>297.4949796906412</v>
       </c>
       <c r="D10" t="n">
-        <v>600.5374229873554</v>
+        <v>297.4949796906412</v>
       </c>
       <c r="E10" t="n">
-        <v>452.6243294049623</v>
+        <v>297.4949796906412</v>
       </c>
       <c r="F10" t="n">
-        <v>305.7343819070519</v>
+        <v>297.4949796906412</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422493</v>
+        <v>297.4949796906412</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685583</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685583</v>
+        <v>51.2112552068555</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380183</v>
+        <v>76.63468308380111</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676574</v>
+        <v>248.2500215676561</v>
       </c>
       <c r="L10" t="n">
-        <v>523.385004336893</v>
+        <v>523.3850043368908</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904049</v>
+        <v>823.8653899904018</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1122.63564010161</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931093</v>
+        <v>1382.582027931088</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616502</v>
+        <v>1581.490387616497</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477365</v>
+        <v>1533.156055412617</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477365</v>
+        <v>1533.156055412617</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477365</v>
+        <v>1533.156055412617</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477365</v>
+        <v>1244.037681907259</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.084657271478</v>
+        <v>989.3531937013717</v>
       </c>
       <c r="W10" t="n">
-        <v>1381.084657271478</v>
+        <v>699.9360236644111</v>
       </c>
       <c r="X10" t="n">
-        <v>1153.095106373461</v>
+        <v>699.9360236644111</v>
       </c>
       <c r="Y10" t="n">
-        <v>932.3025272299309</v>
+        <v>479.143444520881</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5039,19 +5039,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>228.9331431646415</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5206,43 +5206,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5446,40 +5446,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258101</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602299</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396412</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614341</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349511</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6069,16 +6069,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6464,16 +6464,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.800778399825</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.800778399825</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.800778399825</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797705</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="32">
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6938,16 +6938,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>718.5507239167111</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>549.6145409888043</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2182.158203687148</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1348.981318788498</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>1120.991767890481</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>900.1991887469509</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192616</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7725,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.262887399594348</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8152,10 +8152,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>135.006563314041</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.3429583777515</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8535,25 +8535,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084407</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.146344153809</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>35.6838667053882</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>153.7026050278605</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348489</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>16.31315520054599</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.22910392194335</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>117.6435571543409</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>61.40075786968296</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>77.24602870709352</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>21.81301072096153</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393427</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>184.0188038644579</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25208,7 +25208,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>70.88187642684011</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>801654.463274037</v>
+        <v>801654.4632740369</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757276</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.2797520047</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520045</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520049</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580808</v>
+        <v>390680.0076580769</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606913</v>
+        <v>507909.2320606952</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101814</v>
+        <v>95270.23779101719</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954685</v>
+        <v>132717.9756954695</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,19 +26421,19 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447204</v>
+        <v>141668.8507447216</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="G4" t="n">
         <v>11776.97621680584</v>
       </c>
-      <c r="G4" t="n">
-        <v>11776.97621680582</v>
-      </c>
       <c r="H4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680584</v>
@@ -26442,19 +26442,19 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680584</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567913</v>
+        <v>92902.8675756788</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-338424.4331672105</v>
+        <v>-338424.4331672101</v>
       </c>
       <c r="C6" t="n">
         <v>341663.5474239831</v>
       </c>
       <c r="D6" t="n">
-        <v>31581.68991294633</v>
+        <v>31581.68991294919</v>
       </c>
       <c r="E6" t="n">
-        <v>24908.54165060038</v>
+        <v>24873.80372516131</v>
       </c>
       <c r="F6" t="n">
-        <v>532817.7737112918</v>
+        <v>532783.0357858561</v>
       </c>
       <c r="G6" t="n">
-        <v>532817.773711292</v>
+        <v>532783.0357858563</v>
       </c>
       <c r="H6" t="n">
-        <v>532817.7737112924</v>
+        <v>532783.0357858561</v>
       </c>
       <c r="I6" t="n">
-        <v>532817.7737112918</v>
+        <v>532783.0357858563</v>
       </c>
       <c r="J6" t="n">
-        <v>463818.6192921777</v>
+        <v>463783.8813667422</v>
       </c>
       <c r="K6" t="n">
-        <v>532817.7737112918</v>
+        <v>532783.035785856</v>
       </c>
       <c r="L6" t="n">
-        <v>437547.5359202737</v>
+        <v>437512.7979948391</v>
       </c>
       <c r="M6" t="n">
-        <v>400099.7980158234</v>
+        <v>400065.0600903864</v>
       </c>
       <c r="N6" t="n">
-        <v>532817.7737112918</v>
+        <v>532783.0357858564</v>
       </c>
       <c r="O6" t="n">
-        <v>532817.7737112918</v>
+        <v>532783.0357858563</v>
       </c>
       <c r="P6" t="n">
-        <v>532817.773711292</v>
+        <v>532783.0357858563</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627844</v>
+        <v>933.7024595627812</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856979</v>
+        <v>640.1406900856938</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793306</v>
+        <v>319.6474457933029</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788894</v>
+        <v>434.2730407788926</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841917</v>
+        <v>376.4268100841877</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139505</v>
+        <v>532.5675980139546</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841917</v>
+        <v>376.4268100841879</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139505</v>
+        <v>532.5675980139546</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841917</v>
+        <v>376.4268100841877</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139505</v>
+        <v>532.5675980139546</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>174.8653227588713</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>127.0885569156068</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>19.63478035467253</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>67.37141336615844</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>177.2801347158933</v>
       </c>
       <c r="W4" t="n">
-        <v>39.40308825570872</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>145.827880911391</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>36.06358976327918</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>111.0348581872045</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,22 +27743,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2739816375159</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>135.8625994354922</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>238.0558361581805</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>106.9440869810301</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>111.416707471475</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465011</v>
+        <v>65.76608425465062</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27944,10 +27944,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.776449164538235</v>
       </c>
       <c r="H9" t="n">
-        <v>1.776449164522035</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>61.58667813755162</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>8.252682463191292</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-3.510418468994654e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-2.756295778774601e-12</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885562</v>
+        <v>3.75357772688555</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546678</v>
+        <v>38.44132789546664</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972538</v>
+        <v>318.5802175972527</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763198</v>
+        <v>477.4691627763181</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354939</v>
+        <v>592.3427171354919</v>
       </c>
       <c r="M8" t="n">
-        <v>659.095405035995</v>
+        <v>659.0954050359927</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525087</v>
+        <v>669.7602577525064</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307903</v>
+        <v>632.4356192307881</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983029</v>
+        <v>539.7691690983011</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542136</v>
+        <v>405.3441667542122</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864754</v>
+        <v>235.7856768864746</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140484</v>
+        <v>85.53465245140455</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944156</v>
+        <v>16.4312864994415</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508449</v>
+        <v>0.3002862181508439</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436932</v>
+        <v>2.008341139436926</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.39634732035136</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026282</v>
+        <v>69.14683309026258</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079429</v>
+        <v>189.7441951079422</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502173</v>
+        <v>324.3030514502162</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571287</v>
+        <v>436.0654741571273</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617174</v>
+        <v>508.8678404617157</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152222</v>
+        <v>522.3360580152205</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519091</v>
+        <v>477.8354464519074</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947595</v>
+        <v>383.5050724947582</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.3629847463697</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204786</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366405</v>
+        <v>37.30405581366392</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133949</v>
+        <v>8.09502415413392</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.683725746752556</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415887</v>
+        <v>50.6342251841587</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.0394102954057</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772522</v>
+        <v>195.6183185772515</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490127</v>
+        <v>250.3240987490119</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023129</v>
+        <v>263.931664102312</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462354</v>
+        <v>257.6559590462345</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046258</v>
+        <v>237.986981004625</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708734</v>
+        <v>203.6389757708727</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939804</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307427</v>
+        <v>75.70643221307401</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658782</v>
+        <v>29.34274778658772</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942762</v>
+        <v>7.194100917942738</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650348</v>
+        <v>0.09183958618650316</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>263.3189197138078</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32789,19 +32789,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33269,7 +33269,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33500,10 +33500,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,7 +34211,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,16 +34220,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709964</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34445,16 +34445,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>217.4386117456601</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015062</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.2029511204529</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496884</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35030,10 +35030,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705675</v>
+        <v>137.5343130705664</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313392</v>
+        <v>257.3793117313376</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655067</v>
+        <v>356.5763021655046</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087223</v>
+        <v>428.74917180872</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559177</v>
+        <v>440.3471941559155</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091035</v>
+        <v>402.3374078091014</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430333</v>
+        <v>308.5361733430315</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797641</v>
+        <v>183.0384768797627</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234329</v>
+        <v>20.20013907234249</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.997603781685</v>
+        <v>188.9976037816843</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758583</v>
+        <v>186.4616124758572</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772546</v>
+        <v>640.1406900856938</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396991</v>
+        <v>366.7338065396974</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856979</v>
+        <v>390.9943459318872</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074647</v>
+        <v>370.9230687128512</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804293</v>
+        <v>249.530665080428</v>
       </c>
       <c r="Q9" t="n">
-        <v>270.0838156882095</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783551</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873334</v>
+        <v>25.68023017873293</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.3488267513686</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093289</v>
+        <v>277.914124009328</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641535</v>
+        <v>303.5155410641526</v>
       </c>
       <c r="N10" t="n">
-        <v>301.788131425464</v>
+        <v>301.7881314254631</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186655</v>
+        <v>262.5721089186647</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9175350357662</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228604</v>
+        <v>54.82702814228558</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010434</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,22 +35732,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899027</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -36993,7 +36993,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191275</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37148,10 +37148,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,16 +37868,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
